--- a/Produce/xls/PlayerBuffConfig.xlsx
+++ b/Produce/xls/PlayerBuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerBuffConfig" sheetId="1" r:id="rId1"/>
@@ -103,8 +103,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -124,31 +124,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,81 +134,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,10 +148,92 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,9 +245,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,6 +289,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -301,175 +319,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +480,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,6 +533,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,45 +566,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -564,19 +575,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1333,7 +1333,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>

--- a/Produce/xls/PlayerBuffConfig.xlsx
+++ b/Produce/xls/PlayerBuffConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>BuffID</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>开局直接攻击</t>
+  </si>
+  <si>
+    <t>赌狗</t>
+  </si>
+  <si>
+    <t>赌神</t>
+  </si>
+  <si>
+    <t>塔罗牌XXI·世界</t>
   </si>
 </sst>
 </file>
@@ -102,9 +111,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -124,16 +133,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,122 +232,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,55 +298,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,127 +472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,32 +492,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,17 +534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -563,20 +549,43 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,10 +597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,13 +1100,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.8916666666667" style="2" customWidth="1"/>
@@ -1345,6 +1354,75 @@
         <v>26</v>
       </c>
     </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Produce/xls/PlayerBuffConfig.xlsx
+++ b/Produce/xls/PlayerBuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="6192" windowHeight="2316"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerBuffConfig" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -134,7 +134,82 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,43 +224,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -193,21 +231,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -218,60 +264,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,31 +298,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,37 +436,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,109 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,11 +492,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,16 +541,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,21 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -574,21 +589,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -597,10 +597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,16 +1103,16 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.8916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.8888888888889" style="2" customWidth="1"/>
     <col min="3" max="3" width="24" style="2" customWidth="1"/>
     <col min="4" max="5" width="28.25" style="2" customWidth="1"/>
-    <col min="6" max="7" width="19.8916666666667" style="2" customWidth="1"/>
+    <col min="6" max="7" width="19.8888888888889" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.25" style="2" customWidth="1"/>

--- a/Produce/xls/PlayerBuffConfig.xlsx
+++ b/Produce/xls/PlayerBuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="6192" windowHeight="2316"/>
+    <workbookView windowWidth="24225" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerBuffConfig" sheetId="1" r:id="rId1"/>
@@ -111,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -140,60 +140,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,19 +224,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,9 +254,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,37 +271,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,187 +298,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +508,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -525,8 +549,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,30 +560,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,10 +597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,130 +612,130 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,16 +1103,16 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.8888888888889" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.8916666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="24" style="2" customWidth="1"/>
     <col min="4" max="5" width="28.25" style="2" customWidth="1"/>
-    <col min="6" max="7" width="19.8888888888889" style="2" customWidth="1"/>
+    <col min="6" max="7" width="19.8916666666667" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.25" style="2" customWidth="1"/>
